--- a/AutomationFramework/properties.xlsx
+++ b/AutomationFramework/properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TrainingFramework\AutomationFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC7D027-E357-499C-9CD5-82828EE7DBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ADE1AA-93C1-4BEF-8C89-757D7DEAA4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="15300" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1545" yWindow="1890" windowWidth="15300" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="properties" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>PROPERTY_NAME</t>
   </si>
@@ -38,6 +38,69 @@
   </si>
   <si>
     <t>https://www.google.com</t>
+  </si>
+  <si>
+    <t>automation_practice_url</t>
+  </si>
+  <si>
+    <t>http://automationpractice.com/index.php</t>
+  </si>
+  <si>
+    <t>email_address</t>
+  </si>
+  <si>
+    <t>moroniv@hexaware.com</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>moroni</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>villalobos</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>moroni123</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>del zenzontle 9152</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>zip_code</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>mobile_phone</t>
+  </si>
+  <si>
+    <t>address_alias</t>
+  </si>
+  <si>
+    <t>casa</t>
+  </si>
+  <si>
+    <t>United States</t>
   </si>
 </sst>
 </file>
@@ -400,16 +463,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -436,11 +499,110 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>20289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{4DB8405D-76BF-461D-AA45-1F6851DF7C43}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{8B1FF3EA-C0F6-41E8-85F0-F7EDB8AEABD9}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{19C87D72-F956-4090-8371-CC8A97079AF0}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{D137A9FA-4154-4E9D-9840-01111BC86CF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/AutomationFramework/properties.xlsx
+++ b/AutomationFramework/properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TrainingFramework\AutomationFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ADE1AA-93C1-4BEF-8C89-757D7DEAA4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA032F2-587C-44F9-A647-57E54A8AA499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1545" yWindow="1890" windowWidth="15300" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>PROPERTY_NAME</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>United States</t>
+  </si>
+  <si>
+    <t>other</t>
   </si>
 </sst>
 </file>
@@ -463,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,6 +598,11 @@
         <v>25</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{4DB8405D-76BF-461D-AA45-1F6851DF7C43}"/>

--- a/AutomationFramework/properties.xlsx
+++ b/AutomationFramework/properties.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TrainingFramework\AutomationFramework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\75504\IdeaProjects\TrainingFramework\TrainingFramework\AutomationFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA032F2-587C-44F9-A647-57E54A8AA499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A007AEC-14FA-4AFD-B8C0-1FB44F837936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="1890" windowWidth="15300" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="properties" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>PROPERTY_NAME</t>
   </si>
@@ -103,7 +103,10 @@
     <t>United States</t>
   </si>
   <si>
-    <t>other</t>
+    <t>firefox_binary</t>
+  </si>
+  <si>
+    <t>C:\Users\75504\AppData\Local\Mozilla Firefox\firefox.exe</t>
   </si>
 </sst>
 </file>
@@ -469,16 +472,16 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -494,7 +497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -502,7 +505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -510,7 +513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -518,7 +521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -526,7 +529,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -534,7 +537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -542,7 +545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -550,7 +553,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -558,7 +561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -566,7 +569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -574,7 +577,7 @@
         <v>20289</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -582,7 +585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -590,7 +593,7 @@
         <v>123123123</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -598,9 +601,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/AutomationFramework/properties.xlsx
+++ b/AutomationFramework/properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\75504\IdeaProjects\TrainingFramework\TrainingFramework\AutomationFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A007AEC-14FA-4AFD-B8C0-1FB44F837936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C003CF-0E84-43FC-8B14-F0DD98862A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>PROPERTY_NAME</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>C:\Users\75504\AppData\Local\Mozilla Firefox\firefox.exe</t>
+  </si>
+  <si>
+    <t>incorrect_string</t>
+  </si>
+  <si>
+    <t>$$$$$$$$$$$$$$$$$$$$</t>
   </si>
 </sst>
 </file>
@@ -469,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -609,6 +615,14 @@
         <v>28</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{4DB8405D-76BF-461D-AA45-1F6851DF7C43}"/>
